--- a/biology/Médecine/Cohérence_cardiaque/Cohérence_cardiaque.xlsx
+++ b/biology/Médecine/Cohérence_cardiaque/Cohérence_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coh%C3%A9rence_cardiaque</t>
+          <t>Cohérence_cardiaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cohérence cardiaque (ou résonance cardiaque) se définit comme un phénomène de balancier physiologique issu de la synchronisation de l'activité des systèmes nerveux sympathique et parasympathique. Ce concept a été développé aux États-Unis dans les années 1995[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cohérence cardiaque (ou résonance cardiaque) se définit comme un phénomène de balancier physiologique issu de la synchronisation de l'activité des systèmes nerveux sympathique et parasympathique. Ce concept a été développé aux États-Unis dans les années 1995.
 La cohérence cardiaque est considérée comme une pseudoscience par les sceptiques rationnels, son efficacité n'étant toujours pas validée scientifiquement.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coh%C3%A9rence_cardiaque</t>
+          <t>Cohérence_cardiaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire de la cohérence cardiaque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est historiquement connu que la respiration lente volontaire (par exemple dans le yoga depuis plus de 2000 ans) peut aider à réguler l'homéostasie. Au milieu du XXe siècle, les pratiques respiratoires ont commencé à se répandre en occident lorsque des publications scientifiques internationales ont étayé le fait que la respiration lente avait des effets bénéfiques sur la santé mentale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est historiquement connu que la respiration lente volontaire (par exemple dans le yoga depuis plus de 2000 ans) peut aider à réguler l'homéostasie. Au milieu du XXe siècle, les pratiques respiratoires ont commencé à se répandre en occident lorsque des publications scientifiques internationales ont étayé le fait que la respiration lente avait des effets bénéfiques sur la santé mentale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coh%C3%A9rence_cardiaque</t>
+          <t>Cohérence_cardiaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Définition du concept</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-On sait aujourd’hui que la fréquence cardiaque fluctue de manière permanente. Cette variabilité de la fréquence cardiaque (VFC) est un bon indicateur de la capacité du cœur à faire varier son rythme en fonction des sollicitations internes ou externes. La VFC est régulée par le système nerveux autonome (SNA) divisé en deux composantes antagonistes, le système nerveux orthosympathique appelé par simplification « sympathique » (action accélératrice) et le système nerveux parasympathique (action de frein)[2]. À cette régulation s’ajoute une dépendance à un circuit complexe composé de plusieurs régions cérébrales, corticales et limbiques. La synchronisation des systèmes sympathique et parasympathique génère un phénomène de « balancier physiologique » appelé cohérence cardiaque[4]. 
-En modifiant le rythme cardiaque notamment au moyen de la respiration qui est sous le contrôle volontaire, on influencerait le fonctionnement du cerveau qui a son tour modifierait potentiellement notre état émotionnel[4].
+On sait aujourd’hui que la fréquence cardiaque fluctue de manière permanente. Cette variabilité de la fréquence cardiaque (VFC) est un bon indicateur de la capacité du cœur à faire varier son rythme en fonction des sollicitations internes ou externes. La VFC est régulée par le système nerveux autonome (SNA) divisé en deux composantes antagonistes, le système nerveux orthosympathique appelé par simplification « sympathique » (action accélératrice) et le système nerveux parasympathique (action de frein). À cette régulation s’ajoute une dépendance à un circuit complexe composé de plusieurs régions cérébrales, corticales et limbiques. La synchronisation des systèmes sympathique et parasympathique génère un phénomène de « balancier physiologique » appelé cohérence cardiaque. 
+En modifiant le rythme cardiaque notamment au moyen de la respiration qui est sous le contrôle volontaire, on influencerait le fonctionnement du cerveau qui a son tour modifierait potentiellement notre état émotionnel.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coh%C3%A9rence_cardiaque</t>
+          <t>Cohérence_cardiaque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, une méta-analyse concluait que l'entraînement à la cohérence cardiaque avec biofeedback (souvent appelé (biofeedback VLC par les chercheurs) « est associé à une forte réduction du stress et de l'anxiété auto-déclarés. Bien que d'autres études bien contrôlées soient nécessaires, cette intervention offre une approche prometteuse pour le traitement du stress et de l'anxiété avec des dispositifs portables. »[6].
-En 2019, un article de l'Association française pour l'information scientifique place la cohérence cardiaque parmi les pratiques non conventionnelles et pseudo-scientifiques[7].
-En 2023, dans la revue Sciences et Avenir, un premier article indique que la cohérence cardiaque est « une des pratiques les plus utilisées pour réguler ses émotions » en période de stress[8], tandis que, pour un autre article, c'est une technique qui « questionne sur sa réelle efficacité »[9]. Cette même année, il est à nouveau indiqué que la cohérence cardiaque n'aurait pas plus d'efficacité qu'un placebo[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, une méta-analyse concluait que l'entraînement à la cohérence cardiaque avec biofeedback (souvent appelé (biofeedback VLC par les chercheurs) « est associé à une forte réduction du stress et de l'anxiété auto-déclarés. Bien que d'autres études bien contrôlées soient nécessaires, cette intervention offre une approche prometteuse pour le traitement du stress et de l'anxiété avec des dispositifs portables. ».
+En 2019, un article de l'Association française pour l'information scientifique place la cohérence cardiaque parmi les pratiques non conventionnelles et pseudo-scientifiques.
+En 2023, dans la revue Sciences et Avenir, un premier article indique que la cohérence cardiaque est « une des pratiques les plus utilisées pour réguler ses émotions » en période de stress, tandis que, pour un autre article, c'est une technique qui « questionne sur sa réelle efficacité ». Cette même année, il est à nouveau indiqué que la cohérence cardiaque n'aurait pas plus d'efficacité qu'un placebo.
 </t>
         </is>
       </c>
